--- a/rose_pixel_art_shifted.xlsx
+++ b/rose_pixel_art_shifted.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E10"/>
+  <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,67 +440,76 @@
   </cols>
   <sheetData>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="1" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
+      <c r="D2" s="1" t="n"/>
       <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="n"/>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
+      <c r="C3" s="1" t="n"/>
       <c r="D3" s="2" t="n"/>
-      <c r="E3" s="1" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="1" t="n"/>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="2" t="n"/>
+      <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n"/>
       <c r="D4" s="2" t="n"/>
-      <c r="E4" s="1" t="n"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="1" t="n"/>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="2" t="n"/>
+      <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n"/>
       <c r="D5" s="2" t="n"/>
-      <c r="E5" s="1" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="1" t="n"/>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
+      <c r="C6" s="1" t="n"/>
       <c r="D6" s="2" t="n"/>
-      <c r="E6" s="1" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="1" t="n"/>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="2" t="n"/>
+      <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n"/>
       <c r="D7" s="2" t="n"/>
-      <c r="E7" s="1" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="1" t="n"/>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="2" t="n"/>
+      <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n"/>
       <c r="D8" s="2" t="n"/>
-      <c r="E8" s="1" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="1" t="n"/>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
+      <c r="C9" s="1" t="n"/>
       <c r="D9" s="2" t="n"/>
-      <c r="E9" s="1" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="1" t="n"/>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
+      <c r="D10" s="1" t="n"/>
       <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
     </row>
     <row r="11" ht="18" customHeight="1"/>
   </sheetData>
